--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H2">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.412261333333333</v>
+        <v>2.709957333333333</v>
       </c>
       <c r="N2">
-        <v>4.236784</v>
+        <v>8.129871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="P2">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="Q2">
-        <v>3.07787528856</v>
+        <v>2.484487979880889</v>
       </c>
       <c r="R2">
-        <v>27.70087759704</v>
+        <v>22.36039181892799</v>
       </c>
       <c r="S2">
-        <v>0.01006320520586752</v>
+        <v>0.01108139204743246</v>
       </c>
       <c r="T2">
-        <v>0.01006320520586752</v>
+        <v>0.01108139204743246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H3">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>180.529045</v>
       </c>
       <c r="O3">
-        <v>0.8850169875823316</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="P3">
-        <v>0.8850169875823317</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="Q3">
-        <v>131.148032675925</v>
+        <v>55.16965609321721</v>
       </c>
       <c r="R3">
-        <v>1180.332294083325</v>
+        <v>496.526904838955</v>
       </c>
       <c r="S3">
-        <v>0.4287924108130818</v>
+        <v>0.2460694490139054</v>
       </c>
       <c r="T3">
-        <v>0.4287924108130819</v>
+        <v>0.2460694490139054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H4">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>19.217877</v>
       </c>
       <c r="O4">
-        <v>0.0942128044286047</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="P4">
-        <v>0.09421280442860472</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="Q4">
-        <v>13.961115014805</v>
+        <v>5.872981075880332</v>
       </c>
       <c r="R4">
-        <v>125.650035133245</v>
+        <v>52.856829682923</v>
       </c>
       <c r="S4">
-        <v>0.04564628262194196</v>
+        <v>0.02619485637121165</v>
       </c>
       <c r="T4">
-        <v>0.04564628262194197</v>
+        <v>0.02619485637121165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.412261333333333</v>
+        <v>2.709957333333333</v>
       </c>
       <c r="N5">
-        <v>4.236784</v>
+        <v>8.129871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="P5">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="Q5">
-        <v>1.037854377484444</v>
+        <v>1.991516028097778</v>
       </c>
       <c r="R5">
-        <v>9.34068939736</v>
+        <v>17.92364425288</v>
       </c>
       <c r="S5">
-        <v>0.003393295892544172</v>
+        <v>0.008882622920620857</v>
       </c>
       <c r="T5">
-        <v>0.003393295892544173</v>
+        <v>0.008882622920620857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>180.529045</v>
       </c>
       <c r="O6">
-        <v>0.8850169875823316</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="P6">
-        <v>0.8850169875823317</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="Q6">
         <v>44.22289633276944</v>
@@ -818,10 +818,10 @@
         <v>398.006066994925</v>
       </c>
       <c r="S6">
-        <v>0.1445880806959765</v>
+        <v>0.1972443641123494</v>
       </c>
       <c r="T6">
-        <v>0.1445880806959765</v>
+        <v>0.1972443641123494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.204665</v>
       </c>
       <c r="I7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>19.217877</v>
       </c>
       <c r="O7">
-        <v>0.0942128044286047</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="P7">
-        <v>0.09421280442860472</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="Q7">
         <v>4.707664532911666</v>
@@ -880,10 +880,10 @@
         <v>42.368980796205</v>
       </c>
       <c r="S7">
-        <v>0.01539184982937981</v>
+        <v>0.02099727458511923</v>
       </c>
       <c r="T7">
-        <v>0.01539184982937982</v>
+        <v>0.02099727458511923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H8">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I8">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J8">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.412261333333333</v>
+        <v>2.709957333333333</v>
       </c>
       <c r="N8">
-        <v>4.236784</v>
+        <v>8.129871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="P8">
-        <v>0.0207702079890636</v>
+        <v>0.03910908881921663</v>
       </c>
       <c r="Q8">
-        <v>2.236929213505778</v>
+        <v>4.292394462135111</v>
       </c>
       <c r="R8">
-        <v>20.132362921552</v>
+        <v>38.631550159216</v>
       </c>
       <c r="S8">
-        <v>0.007313706890651903</v>
+        <v>0.01914507385116331</v>
       </c>
       <c r="T8">
-        <v>0.007313706890651903</v>
+        <v>0.01914507385116331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H9">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I9">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J9">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>180.529045</v>
       </c>
       <c r="O9">
-        <v>0.8850169875823316</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="P9">
-        <v>0.8850169875823317</v>
+        <v>0.868442511192471</v>
       </c>
       <c r="Q9">
-        <v>95.31538417979277</v>
+        <v>95.31538417979279</v>
       </c>
       <c r="R9">
-        <v>857.838457618135</v>
+        <v>857.8384576181351</v>
       </c>
       <c r="S9">
-        <v>0.3116364960732734</v>
+        <v>0.4251286980662161</v>
       </c>
       <c r="T9">
-        <v>0.3116364960732734</v>
+        <v>0.4251286980662161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H10">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I10">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J10">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>19.217877</v>
       </c>
       <c r="O10">
-        <v>0.0942128044286047</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="P10">
-        <v>0.09421280442860472</v>
+        <v>0.09244839998831231</v>
       </c>
       <c r="Q10">
         <v>10.14661839802567</v>
       </c>
       <c r="R10">
-        <v>91.31956558223101</v>
+        <v>91.31956558223102</v>
       </c>
       <c r="S10">
-        <v>0.03317467197728294</v>
+        <v>0.04525626903198142</v>
       </c>
       <c r="T10">
-        <v>0.03317467197728294</v>
+        <v>0.04525626903198142</v>
       </c>
     </row>
   </sheetData>
